--- a/code/vocab_csv/toms.xlsx
+++ b/code/vocab_csv/toms.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="868">
   <si>
     <t>Term</t>
   </si>
@@ -820,6 +820,9 @@
       </rPr>
       <t>https://www.iso.org/standard/45123.html)</t>
     </r>
+  </si>
+  <si>
+    <t>Axel Polleres, Rob Brennan, Harshvardhan J. Pandit, Mark Lizar, Maya Borges, Damien Desfontaines</t>
   </si>
   <si>
     <t>Pseudonymisation</t>
@@ -12604,7 +12607,7 @@
         <v>20</v>
       </c>
       <c r="N43" s="17" t="s">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c r="O43" s="21" t="s">
         <v>22</v>
@@ -12625,13 +12628,13 @@
     </row>
     <row r="44">
       <c r="A44" s="17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>226</v>
@@ -12644,7 +12647,7 @@
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="50" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K44" s="20">
         <v>43560.0</v>
@@ -12656,7 +12659,7 @@
         <v>20</v>
       </c>
       <c r="N44" s="17" t="s">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c r="O44" s="21" t="s">
         <v>22</v>
@@ -12677,16 +12680,16 @@
     </row>
     <row r="45">
       <c r="A45" s="17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>51</v>
@@ -12696,7 +12699,7 @@
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K45" s="20">
         <v>44790.0</v>
@@ -12727,16 +12730,16 @@
     </row>
     <row r="46">
       <c r="A46" s="17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>51</v>
@@ -12746,7 +12749,7 @@
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K46" s="20">
         <v>44790.0</v>
@@ -12777,16 +12780,16 @@
     </row>
     <row r="47">
       <c r="A47" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>51</v>
@@ -12796,7 +12799,7 @@
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K47" s="20">
         <v>44790.0</v>
@@ -12829,16 +12832,16 @@
     </row>
     <row r="48">
       <c r="A48" s="17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>51</v>
@@ -12848,7 +12851,7 @@
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K48" s="20">
         <v>44790.0</v>
@@ -12881,16 +12884,16 @@
     </row>
     <row r="49">
       <c r="A49" s="17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>51</v>
@@ -12900,7 +12903,7 @@
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K49" s="20">
         <v>44790.0</v>
@@ -12942,13 +12945,13 @@
     </row>
     <row r="51">
       <c r="A51" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D51" s="19"/>
       <c r="E51" s="17" t="s">
@@ -12990,13 +12993,13 @@
     </row>
     <row r="53">
       <c r="A53" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D53" s="19"/>
       <c r="E53" s="17" t="s">
@@ -13036,16 +13039,16 @@
     </row>
     <row r="54">
       <c r="A54" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>51</v>
@@ -13084,16 +13087,16 @@
     </row>
     <row r="55">
       <c r="A55" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="D55" s="17" t="s">
         <v>261</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>260</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>51</v>
@@ -13132,16 +13135,16 @@
     </row>
     <row r="56">
       <c r="A56" s="17" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>51</v>
@@ -13178,16 +13181,16 @@
     </row>
     <row r="57">
       <c r="A57" s="17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E57" s="17" t="s">
         <v>51</v>
@@ -13197,7 +13200,7 @@
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="31" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K57" s="20">
         <v>44790.0</v>
@@ -13228,16 +13231,16 @@
     </row>
     <row r="58">
       <c r="A58" s="17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E58" s="17" t="s">
         <v>51</v>
@@ -13247,7 +13250,7 @@
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K58" s="20">
         <v>44790.0</v>
@@ -13278,16 +13281,16 @@
     </row>
     <row r="59">
       <c r="A59" s="17" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E59" s="17" t="s">
         <v>51</v>
@@ -13297,7 +13300,7 @@
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="31" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K59" s="20">
         <v>44790.0</v>
@@ -13339,13 +13342,13 @@
     </row>
     <row r="61">
       <c r="A61" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="17" t="s">
@@ -13387,13 +13390,13 @@
     </row>
     <row r="63">
       <c r="A63" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="17" t="s">
@@ -13431,16 +13434,16 @@
     </row>
     <row r="64">
       <c r="A64" s="13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B64" s="51" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E64" s="52" t="s">
         <v>51</v>
@@ -13481,16 +13484,16 @@
     </row>
     <row r="65">
       <c r="A65" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B65" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="D65" s="13" t="s">
         <v>289</v>
-      </c>
-      <c r="B65" s="51" t="s">
-        <v>290</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>288</v>
       </c>
       <c r="E65" s="52" t="s">
         <v>51</v>
@@ -13531,16 +13534,16 @@
     </row>
     <row r="66">
       <c r="A66" s="17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>51</v>
@@ -13581,16 +13584,16 @@
     </row>
     <row r="67">
       <c r="A67" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B67" s="51" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E67" s="52" t="s">
         <v>51</v>
@@ -13631,16 +13634,16 @@
     </row>
     <row r="68">
       <c r="A68" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B68" s="51" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E68" s="52" t="s">
         <v>51</v>
@@ -13681,16 +13684,16 @@
     </row>
     <row r="69">
       <c r="A69" s="13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B69" s="51" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E69" s="52" t="s">
         <v>51</v>
@@ -13731,16 +13734,16 @@
     </row>
     <row r="70">
       <c r="A70" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B70" s="51" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E70" s="52" t="s">
         <v>51</v>
@@ -13750,7 +13753,7 @@
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="54" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K70" s="14">
         <v>44790.0</v>
@@ -13781,16 +13784,16 @@
     </row>
     <row r="71">
       <c r="A71" s="13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B71" s="51" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E71" s="52" t="s">
         <v>51</v>
@@ -13831,16 +13834,16 @@
     </row>
     <row r="72">
       <c r="A72" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B72" s="51" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E72" s="52" t="s">
         <v>51</v>
@@ -13881,16 +13884,16 @@
     </row>
     <row r="73">
       <c r="A73" s="13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B73" s="51" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E73" s="52" t="s">
         <v>51</v>
@@ -13931,16 +13934,16 @@
     </row>
     <row r="74">
       <c r="A74" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B74" s="51" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E74" s="52" t="s">
         <v>51</v>
@@ -13950,7 +13953,7 @@
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
       <c r="J74" s="54" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K74" s="14">
         <v>44790.0</v>
@@ -13981,16 +13984,16 @@
     </row>
     <row r="75">
       <c r="A75" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B75" s="51" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E75" s="52" t="s">
         <v>51</v>
@@ -14031,16 +14034,16 @@
     </row>
     <row r="76">
       <c r="A76" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B76" s="51" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E76" s="52" t="s">
         <v>51</v>
@@ -14081,16 +14084,16 @@
     </row>
     <row r="77">
       <c r="A77" s="13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B77" s="51" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E77" s="52" t="s">
         <v>51</v>
@@ -14131,16 +14134,16 @@
     </row>
     <row r="78">
       <c r="A78" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B78" s="51" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E78" s="52" t="s">
         <v>51</v>
@@ -14181,16 +14184,16 @@
     </row>
     <row r="79">
       <c r="A79" s="13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B79" s="51" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E79" s="52" t="s">
         <v>51</v>
@@ -14231,16 +14234,16 @@
     </row>
     <row r="81">
       <c r="A81" s="55" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B81" s="56" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C81" s="57" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D81" s="55" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E81" s="58" t="s">
         <v>51</v>
@@ -14255,7 +14258,7 @@
       </c>
       <c r="L81" s="59"/>
       <c r="M81" s="61" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N81" s="58" t="s">
         <v>53</v>
@@ -14277,13 +14280,13 @@
     </row>
     <row r="82">
       <c r="A82" s="55" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B82" s="56" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C82" s="55" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D82" s="55" t="s">
         <v>219</v>
@@ -14303,7 +14306,7 @@
       </c>
       <c r="L82" s="59"/>
       <c r="M82" s="61" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N82" s="55" t="s">
         <v>53</v>
@@ -17108,13 +17111,13 @@
     </row>
     <row r="2">
       <c r="A2" s="64" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D2" s="63"/>
       <c r="E2" s="17" t="s">
@@ -17136,7 +17139,7 @@
         <v>53</v>
       </c>
       <c r="O2" s="68" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P2" s="66"/>
       <c r="Q2" s="66"/>
@@ -17158,13 +17161,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>93</v>
@@ -17177,7 +17180,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="31" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K3" s="20">
         <v>44790.0</v>
@@ -17212,13 +17215,13 @@
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>93</v>
@@ -17242,7 +17245,7 @@
         <v>199</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
@@ -17264,16 +17267,16 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>58</v>
@@ -17291,10 +17294,10 @@
         <v>20</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
@@ -17316,13 +17319,13 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>93</v>
@@ -17343,7 +17346,7 @@
         <v>20</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O6" s="17"/>
       <c r="P6" s="19"/>
@@ -17366,16 +17369,16 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>58</v>
@@ -17393,7 +17396,7 @@
         <v>20</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O7" s="17"/>
       <c r="P7" s="19"/>
@@ -17416,13 +17419,13 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>93</v>
@@ -17443,7 +17446,7 @@
         <v>20</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O8" s="17"/>
       <c r="P8" s="19"/>
@@ -17477,13 +17480,13 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="17" t="s">
@@ -17494,7 +17497,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="31" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K10" s="20">
         <v>44790.0</v>
@@ -17529,16 +17532,16 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>58</v>
@@ -17548,7 +17551,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="31" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K11" s="20">
         <v>44790.0</v>
@@ -17583,16 +17586,16 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>58</v>
@@ -17602,7 +17605,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="31" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K12" s="20">
         <v>44790.0</v>
@@ -17637,16 +17640,16 @@
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>58</v>
@@ -17656,7 +17659,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K13" s="36">
         <v>45396.0</v>
@@ -17666,7 +17669,7 @@
         <v>20</v>
       </c>
       <c r="N13" s="52" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
@@ -17689,16 +17692,16 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>58</v>
@@ -17708,7 +17711,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="31" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K14" s="20">
         <v>44790.0</v>
@@ -17743,16 +17746,16 @@
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>58</v>
@@ -17762,7 +17765,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="12"/>
       <c r="J15" s="34" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K15" s="14">
         <v>44790.0</v>
@@ -17797,16 +17800,16 @@
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>58</v>
@@ -17816,7 +17819,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="12"/>
       <c r="J16" s="34" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K16" s="14">
         <v>44790.0</v>
@@ -17851,16 +17854,16 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>58</v>
@@ -17878,10 +17881,10 @@
         <v>20</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O17" s="27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
@@ -17903,16 +17906,16 @@
     </row>
     <row r="18">
       <c r="A18" s="71" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>58</v>
@@ -17930,10 +17933,10 @@
         <v>20</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
@@ -17955,13 +17958,13 @@
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>62</v>
@@ -17974,7 +17977,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="12"/>
       <c r="J19" s="34" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K19" s="14">
         <v>44790.0</v>
@@ -18011,13 +18014,13 @@
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>62</v>
@@ -18030,7 +18033,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="12"/>
       <c r="J20" s="34" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K20" s="14">
         <v>44790.0</v>
@@ -18067,13 +18070,13 @@
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>62</v>
@@ -18086,7 +18089,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="12"/>
       <c r="J21" s="34" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K21" s="14">
         <v>44790.0</v>
@@ -18123,13 +18126,13 @@
     </row>
     <row r="22">
       <c r="A22" s="17" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>62</v>
@@ -18175,13 +18178,13 @@
     </row>
     <row r="23">
       <c r="A23" s="73" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B23" s="74" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C23" s="75" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D23" s="74" t="s">
         <v>62</v>
@@ -18193,7 +18196,7 @@
       <c r="G23" s="76"/>
       <c r="H23" s="76"/>
       <c r="I23" s="74" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J23" s="77"/>
       <c r="K23" s="78">
@@ -18227,16 +18230,16 @@
     </row>
     <row r="24">
       <c r="A24" s="80" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B24" s="81" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C24" s="82" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D24" s="83" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E24" s="84" t="s">
         <v>58</v>
@@ -18245,7 +18248,7 @@
       <c r="G24" s="85"/>
       <c r="H24" s="85"/>
       <c r="I24" s="81" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="J24" s="86"/>
       <c r="K24" s="78">
@@ -18256,7 +18259,7 @@
         <v>20</v>
       </c>
       <c r="N24" s="82" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O24" s="86"/>
       <c r="P24" s="85"/>
@@ -18279,16 +18282,16 @@
     </row>
     <row r="25">
       <c r="A25" s="82" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B25" s="88" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C25" s="81" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D25" s="83" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E25" s="84" t="s">
         <v>58</v>
@@ -18306,7 +18309,7 @@
         <v>20</v>
       </c>
       <c r="N25" s="82" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O25" s="86"/>
       <c r="P25" s="85"/>
@@ -18329,16 +18332,16 @@
     </row>
     <row r="26">
       <c r="A26" s="80" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B26" s="81" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C26" s="81" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D26" s="83" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E26" s="84" t="s">
         <v>58</v>
@@ -18347,7 +18350,7 @@
       <c r="G26" s="85"/>
       <c r="H26" s="85"/>
       <c r="I26" s="81" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="J26" s="86"/>
       <c r="K26" s="78">
@@ -18358,7 +18361,7 @@
         <v>20</v>
       </c>
       <c r="N26" s="82" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O26" s="86"/>
       <c r="P26" s="85"/>
@@ -18381,16 +18384,16 @@
     </row>
     <row r="27">
       <c r="A27" s="89" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B27" s="89" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C27" s="81" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D27" s="83" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E27" s="84" t="s">
         <v>58</v>
@@ -18399,7 +18402,7 @@
       <c r="G27" s="85"/>
       <c r="H27" s="85"/>
       <c r="I27" s="81" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="J27" s="86"/>
       <c r="K27" s="78">
@@ -18433,16 +18436,16 @@
     </row>
     <row r="28">
       <c r="A28" s="17" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C28" s="81" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D28" s="83" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E28" s="84" t="s">
         <v>58</v>
@@ -18451,7 +18454,7 @@
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
       <c r="I28" s="81" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="78">
@@ -18485,16 +18488,16 @@
     </row>
     <row r="29">
       <c r="A29" s="17" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D29" s="83" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E29" s="84" t="s">
         <v>58</v>
@@ -18503,7 +18506,7 @@
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="90" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J29" s="17"/>
       <c r="K29" s="78">
@@ -18550,13 +18553,13 @@
     </row>
     <row r="31">
       <c r="A31" s="71" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="32" t="s">
@@ -18598,16 +18601,16 @@
     </row>
     <row r="32">
       <c r="A32" s="12" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E32" s="32" t="s">
         <v>58</v>
@@ -18617,7 +18620,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="12"/>
       <c r="J32" s="34" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K32" s="14">
         <v>44790.0</v>
@@ -18652,16 +18655,16 @@
     </row>
     <row r="33">
       <c r="A33" s="17" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>58</v>
@@ -18670,7 +18673,7 @@
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
       <c r="I33" s="90" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J33" s="17"/>
       <c r="K33" s="20">
@@ -18706,16 +18709,16 @@
     </row>
     <row r="34">
       <c r="A34" s="17" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>58</v>
@@ -18725,7 +18728,7 @@
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="31" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K34" s="20">
         <v>44790.0</v>
@@ -18760,16 +18763,16 @@
     </row>
     <row r="35">
       <c r="A35" s="17" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>58</v>
@@ -18812,16 +18815,16 @@
     </row>
     <row r="36">
       <c r="A36" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>470</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>471</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>469</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>58</v>
@@ -18866,16 +18869,16 @@
     </row>
     <row r="37">
       <c r="A37" s="17" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>58</v>
@@ -18885,7 +18888,7 @@
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="31" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K37" s="20">
         <v>44790.0</v>
@@ -18920,16 +18923,16 @@
     </row>
     <row r="38">
       <c r="A38" s="91" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B38" s="91" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C38" s="77" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>58</v>
@@ -18939,7 +18942,7 @@
       <c r="H38" s="76"/>
       <c r="I38" s="76"/>
       <c r="J38" s="76" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K38" s="78">
         <v>45396.0</v>
@@ -18949,7 +18952,7 @@
         <v>20</v>
       </c>
       <c r="N38" s="74" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O38" s="76"/>
       <c r="P38" s="76"/>
@@ -18972,13 +18975,13 @@
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="17" t="s">
@@ -19022,16 +19025,16 @@
     </row>
     <row r="41">
       <c r="A41" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>58</v>
@@ -19074,16 +19077,16 @@
     </row>
     <row r="42">
       <c r="A42" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>487</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>488</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>486</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>58</v>
@@ -19138,13 +19141,13 @@
     </row>
     <row r="44">
       <c r="A44" s="8" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="17" t="s">
@@ -19188,16 +19191,16 @@
     </row>
     <row r="45">
       <c r="A45" s="17" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>58</v>
@@ -19240,16 +19243,16 @@
     </row>
     <row r="46">
       <c r="A46" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="D46" s="17" t="s">
         <v>496</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>497</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>498</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>495</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>58</v>
@@ -19292,16 +19295,16 @@
     </row>
     <row r="47">
       <c r="A47" s="17" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C47" s="52" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>58</v>
@@ -19346,16 +19349,16 @@
     </row>
     <row r="48">
       <c r="A48" s="13" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B48" s="51" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E48" s="52" t="s">
         <v>58</v>
@@ -19398,16 +19401,16 @@
     </row>
     <row r="49">
       <c r="A49" s="17" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E49" s="52" t="s">
         <v>58</v>
@@ -19448,16 +19451,16 @@
     </row>
     <row r="50">
       <c r="A50" s="17" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E50" s="52" t="s">
         <v>58</v>
@@ -19498,13 +19501,13 @@
     </row>
     <row r="52">
       <c r="A52" s="92" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="17" t="s">
@@ -19514,7 +19517,7 @@
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
       <c r="I52" s="17" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="J52" s="19"/>
       <c r="K52" s="20">
@@ -19525,10 +19528,10 @@
         <v>20</v>
       </c>
       <c r="N52" s="17" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O52" s="68" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P52" s="19"/>
       <c r="Q52" s="19"/>
@@ -19550,13 +19553,13 @@
     </row>
     <row r="53">
       <c r="A53" s="63" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B53" s="65" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C53" s="63" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D53" s="63" t="s">
         <v>74</v>
@@ -19577,10 +19580,10 @@
         <v>20</v>
       </c>
       <c r="N53" s="28" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O53" s="68" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P53" s="66"/>
       <c r="Q53" s="66"/>
@@ -19602,16 +19605,16 @@
     </row>
     <row r="54">
       <c r="A54" s="17" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>58</v>
@@ -19654,13 +19657,13 @@
     </row>
     <row r="55">
       <c r="A55" s="74" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B55" s="74" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C55" s="93" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D55" s="77" t="s">
         <v>74</v>
@@ -19704,16 +19707,16 @@
     </row>
     <row r="56">
       <c r="A56" s="82" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B56" s="82" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C56" s="94" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D56" s="82" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E56" s="84" t="s">
         <v>58</v>
@@ -19723,7 +19726,7 @@
       <c r="H56" s="85"/>
       <c r="I56" s="85"/>
       <c r="J56" s="95" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K56" s="78">
         <v>45396.0</v>
@@ -19733,7 +19736,7 @@
         <v>20</v>
       </c>
       <c r="N56" s="28" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O56" s="86"/>
       <c r="P56" s="85"/>
@@ -19756,13 +19759,13 @@
     </row>
     <row r="57">
       <c r="A57" s="77" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B57" s="76" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C57" s="96" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D57" s="77" t="s">
         <v>74</v>
@@ -19775,7 +19778,7 @@
       <c r="H57" s="76"/>
       <c r="I57" s="76"/>
       <c r="J57" s="76" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K57" s="78">
         <v>45396.0</v>
@@ -19785,7 +19788,7 @@
         <v>20</v>
       </c>
       <c r="N57" s="28" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O57" s="76"/>
       <c r="P57" s="76"/>
@@ -19819,13 +19822,13 @@
     </row>
     <row r="59">
       <c r="A59" s="8" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="17" t="s">
@@ -19835,7 +19838,7 @@
       <c r="G59" s="19"/>
       <c r="H59" s="19"/>
       <c r="I59" s="17" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="J59" s="19"/>
       <c r="K59" s="78">
@@ -19869,16 +19872,16 @@
     </row>
     <row r="60">
       <c r="A60" s="77" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B60" s="77" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C60" s="97" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D60" s="74" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E60" s="17" t="s">
         <v>58</v>
@@ -19919,16 +19922,16 @@
     </row>
     <row r="61">
       <c r="A61" s="80" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B61" s="80" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C61" s="98" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D61" s="80" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E61" s="84" t="s">
         <v>58</v>
@@ -19938,7 +19941,7 @@
       <c r="H61" s="85"/>
       <c r="I61" s="85"/>
       <c r="J61" s="95" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K61" s="78">
         <v>45396.0</v>
@@ -19982,13 +19985,13 @@
     </row>
     <row r="63">
       <c r="A63" s="8" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="17" t="s">
@@ -19998,7 +20001,7 @@
       <c r="G63" s="19"/>
       <c r="H63" s="19"/>
       <c r="I63" s="17" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="J63" s="19"/>
       <c r="K63" s="20">
@@ -20014,7 +20017,7 @@
         <v>199</v>
       </c>
       <c r="O63" s="68" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P63" s="19"/>
       <c r="Q63" s="19"/>
@@ -20036,13 +20039,13 @@
     </row>
     <row r="64">
       <c r="A64" s="17" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>97</v>
@@ -20066,7 +20069,7 @@
         <v>53</v>
       </c>
       <c r="O64" s="68" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P64" s="19"/>
       <c r="Q64" s="19"/>
@@ -20088,16 +20091,16 @@
     </row>
     <row r="65">
       <c r="A65" s="17" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E65" s="17" t="s">
         <v>58</v>
@@ -20140,16 +20143,16 @@
     </row>
     <row r="66">
       <c r="A66" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="D66" s="17" t="s">
         <v>555</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>556</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>557</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>554</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>58</v>
@@ -20158,7 +20161,7 @@
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
       <c r="I66" s="31" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="J66" s="19"/>
       <c r="K66" s="20">
@@ -20174,7 +20177,7 @@
         <v>199</v>
       </c>
       <c r="O66" s="31" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P66" s="19"/>
       <c r="Q66" s="19"/>
@@ -20196,13 +20199,13 @@
     </row>
     <row r="67">
       <c r="A67" s="17" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D67" s="17" t="s">
         <v>97</v>
@@ -20246,13 +20249,13 @@
     </row>
     <row r="68">
       <c r="A68" s="17" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D68" s="17" t="s">
         <v>97</v>
@@ -20296,16 +20299,16 @@
     </row>
     <row r="69">
       <c r="A69" s="17" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>58</v>
@@ -20358,13 +20361,13 @@
     </row>
     <row r="71">
       <c r="A71" s="8" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="17" t="s">
@@ -20408,16 +20411,16 @@
     </row>
     <row r="72">
       <c r="A72" s="17" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E72" s="17" t="s">
         <v>58</v>
@@ -20460,16 +20463,16 @@
     </row>
     <row r="73">
       <c r="A73" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>576</v>
+      </c>
+      <c r="C73" s="72" t="s">
+        <v>577</v>
+      </c>
+      <c r="D73" s="17" t="s">
         <v>574</v>
-      </c>
-      <c r="B73" s="22" t="s">
-        <v>575</v>
-      </c>
-      <c r="C73" s="72" t="s">
-        <v>576</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>573</v>
       </c>
       <c r="E73" s="17" t="s">
         <v>58</v>
@@ -20487,7 +20490,7 @@
         <v>20</v>
       </c>
       <c r="N73" s="17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O73" s="21" t="s">
         <v>212</v>
@@ -20512,16 +20515,16 @@
     </row>
     <row r="74">
       <c r="A74" s="17" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C74" s="72" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>58</v>
@@ -20539,7 +20542,7 @@
         <v>20</v>
       </c>
       <c r="N74" s="17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O74" s="30"/>
       <c r="P74" s="19"/>
@@ -20562,16 +20565,16 @@
     </row>
     <row r="75">
       <c r="A75" s="17" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C75" s="72" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E75" s="17" t="s">
         <v>58</v>
@@ -20589,7 +20592,7 @@
         <v>20</v>
       </c>
       <c r="N75" s="17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O75" s="21" t="s">
         <v>212</v>
@@ -20625,13 +20628,13 @@
     </row>
     <row r="77">
       <c r="A77" s="8" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="17" t="s">
@@ -20675,16 +20678,16 @@
     </row>
     <row r="78">
       <c r="A78" s="17" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>58</v>
@@ -20694,7 +20697,7 @@
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
       <c r="J78" s="31" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="K78" s="20">
         <v>44790.0</v>
@@ -20729,16 +20732,16 @@
     </row>
     <row r="79">
       <c r="A79" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>58</v>
@@ -20783,16 +20786,16 @@
     </row>
     <row r="80">
       <c r="A80" s="17" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E80" s="17" t="s">
         <v>58</v>
@@ -20837,16 +20840,16 @@
     </row>
     <row r="81">
       <c r="A81" s="17" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E81" s="17" t="s">
         <v>58</v>
@@ -20856,7 +20859,7 @@
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
       <c r="J81" s="31" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="K81" s="20">
         <v>44790.0</v>
@@ -20891,16 +20894,16 @@
     </row>
     <row r="82">
       <c r="A82" s="17" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E82" s="17" t="s">
         <v>58</v>
@@ -20952,13 +20955,13 @@
     </row>
     <row r="84">
       <c r="A84" s="99" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C84" s="52" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="52" t="s">
@@ -20968,7 +20971,7 @@
       <c r="G84" s="13"/>
       <c r="H84" s="13"/>
       <c r="I84" s="52" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="J84" s="12"/>
       <c r="K84" s="14">
@@ -20979,10 +20982,10 @@
         <v>20</v>
       </c>
       <c r="N84" s="9" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O84" s="53" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P84" s="13"/>
       <c r="Q84" s="13"/>
@@ -21004,16 +21007,16 @@
     </row>
     <row r="85">
       <c r="A85" s="13" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B85" s="51" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E85" s="52" t="s">
         <v>58</v>
@@ -21031,10 +21034,10 @@
         <v>20</v>
       </c>
       <c r="N85" s="9" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O85" s="53" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P85" s="13"/>
       <c r="Q85" s="13"/>
@@ -21056,16 +21059,16 @@
     </row>
     <row r="86">
       <c r="A86" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>615</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D86" s="13" t="s">
         <v>613</v>
-      </c>
-      <c r="B86" s="22" t="s">
-        <v>614</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>615</v>
-      </c>
-      <c r="D86" s="13" t="s">
-        <v>612</v>
       </c>
       <c r="E86" s="52" t="s">
         <v>58</v>
@@ -21075,7 +21078,7 @@
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
       <c r="J86" s="31" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="K86" s="20">
         <v>45429.0</v>
@@ -21114,13 +21117,13 @@
     </row>
     <row r="88">
       <c r="A88" s="8" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D88" s="19"/>
       <c r="E88" s="17" t="s">
@@ -21139,7 +21142,7 @@
         <v>20</v>
       </c>
       <c r="N88" s="74" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O88" s="30"/>
       <c r="P88" s="19"/>
@@ -21162,16 +21165,16 @@
     </row>
     <row r="89">
       <c r="A89" s="100" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B89" s="91" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C89" s="75" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D89" s="100" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E89" s="17" t="s">
         <v>58</v>
@@ -21180,10 +21183,10 @@
       <c r="G89" s="91"/>
       <c r="H89" s="76"/>
       <c r="I89" s="74" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="J89" s="91" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="K89" s="78">
         <v>45396.0</v>
@@ -21193,7 +21196,7 @@
         <v>20</v>
       </c>
       <c r="N89" s="74" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O89" s="76"/>
       <c r="P89" s="76"/>
@@ -21216,16 +21219,16 @@
     </row>
     <row r="90">
       <c r="A90" s="83" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B90" s="91" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C90" s="101" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D90" s="100" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E90" s="17" t="s">
         <v>58</v>
@@ -21235,7 +21238,7 @@
       <c r="H90" s="76"/>
       <c r="I90" s="76"/>
       <c r="J90" s="91" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="K90" s="78">
         <v>45396.0</v>
@@ -21245,7 +21248,7 @@
         <v>20</v>
       </c>
       <c r="N90" s="74" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O90" s="76"/>
       <c r="P90" s="76"/>
@@ -21268,16 +21271,16 @@
     </row>
     <row r="91">
       <c r="A91" s="73" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B91" s="91" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C91" s="102" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D91" s="100" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E91" s="17" t="s">
         <v>58</v>
@@ -21286,10 +21289,10 @@
       <c r="G91" s="91"/>
       <c r="H91" s="76"/>
       <c r="I91" s="74" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="J91" s="91" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="K91" s="78">
         <v>45396.0</v>
@@ -21299,7 +21302,7 @@
         <v>20</v>
       </c>
       <c r="N91" s="74" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O91" s="76"/>
       <c r="P91" s="76"/>
@@ -21322,16 +21325,16 @@
     </row>
     <row r="92">
       <c r="A92" s="103" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B92" s="104" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C92" s="102" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D92" s="105" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E92" s="17" t="s">
         <v>58</v>
@@ -21341,7 +21344,7 @@
       <c r="H92" s="106"/>
       <c r="I92" s="106"/>
       <c r="J92" s="104" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="K92" s="107">
         <v>45396.0</v>
@@ -21351,7 +21354,7 @@
         <v>20</v>
       </c>
       <c r="N92" s="74" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O92" s="106"/>
       <c r="P92" s="106"/>
@@ -21374,16 +21377,16 @@
     </row>
     <row r="94">
       <c r="A94" s="99" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C94" s="108" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E94" s="17" t="s">
         <v>58</v>
@@ -21424,16 +21427,16 @@
     </row>
     <row r="95">
       <c r="A95" s="13" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E95" s="17" t="s">
         <v>58</v>
@@ -21442,7 +21445,7 @@
       <c r="G95" s="13"/>
       <c r="H95" s="13"/>
       <c r="I95" s="52" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="J95" s="13"/>
       <c r="K95" s="36">
@@ -21476,16 +21479,16 @@
     </row>
     <row r="96">
       <c r="A96" s="13" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E96" s="17" t="s">
         <v>58</v>
@@ -21526,16 +21529,16 @@
     </row>
     <row r="97">
       <c r="A97" s="13" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E97" s="17" t="s">
         <v>58</v>
@@ -21576,16 +21579,16 @@
     </row>
     <row r="98">
       <c r="A98" s="13" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E98" s="17" t="s">
         <v>58</v>
@@ -21626,16 +21629,16 @@
     </row>
     <row r="99">
       <c r="A99" s="13" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E99" s="17" t="s">
         <v>58</v>
@@ -21644,7 +21647,7 @@
       <c r="G99" s="13"/>
       <c r="H99" s="13"/>
       <c r="I99" s="52" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="J99" s="13"/>
       <c r="K99" s="36">
@@ -21678,16 +21681,16 @@
     </row>
     <row r="100">
       <c r="A100" s="13" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E100" s="17" t="s">
         <v>58</v>
@@ -21728,16 +21731,16 @@
     </row>
     <row r="101">
       <c r="A101" s="13" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E101" s="17" t="s">
         <v>58</v>
@@ -21778,16 +21781,16 @@
     </row>
     <row r="102">
       <c r="A102" s="13" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E102" s="17" t="s">
         <v>58</v>
@@ -21797,7 +21800,7 @@
       <c r="H102" s="13"/>
       <c r="I102" s="13"/>
       <c r="J102" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K102" s="36">
         <v>45396.0</v>
@@ -21807,7 +21810,7 @@
         <v>20</v>
       </c>
       <c r="N102" s="109" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O102" s="13"/>
       <c r="P102" s="13"/>
@@ -21830,16 +21833,16 @@
     </row>
     <row r="103">
       <c r="A103" s="17" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E103" s="17" t="s">
         <v>58</v>
@@ -21884,13 +21887,13 @@
     </row>
     <row r="105">
       <c r="A105" s="99" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C105" s="70" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D105" s="13"/>
       <c r="E105" s="17" t="s">
@@ -21901,7 +21904,7 @@
       <c r="H105" s="13"/>
       <c r="I105" s="13"/>
       <c r="J105" s="13" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="K105" s="36">
         <v>45396.0</v>
@@ -21911,7 +21914,7 @@
         <v>20</v>
       </c>
       <c r="N105" s="109" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O105" s="13"/>
       <c r="P105" s="13"/>
@@ -21934,16 +21937,16 @@
     </row>
     <row r="106">
       <c r="A106" s="13" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C106" s="108" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E106" s="17" t="s">
         <v>58</v>
@@ -21953,7 +21956,7 @@
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
       <c r="J106" s="13" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="K106" s="36">
         <v>45396.0</v>
@@ -21963,7 +21966,7 @@
         <v>20</v>
       </c>
       <c r="N106" s="109" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O106" s="13"/>
       <c r="P106" s="13"/>
@@ -21986,16 +21989,16 @@
     </row>
     <row r="107">
       <c r="A107" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="C107" s="70" t="s">
+        <v>690</v>
+      </c>
+      <c r="D107" s="13" t="s">
         <v>687</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>688</v>
-      </c>
-      <c r="C107" s="70" t="s">
-        <v>689</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>686</v>
       </c>
       <c r="E107" s="17" t="s">
         <v>58</v>
@@ -22005,7 +22008,7 @@
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
       <c r="J107" s="13" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="K107" s="36">
         <v>45396.0</v>
@@ -22015,7 +22018,7 @@
         <v>20</v>
       </c>
       <c r="N107" s="109" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O107" s="13"/>
       <c r="P107" s="13"/>
@@ -22038,16 +22041,16 @@
     </row>
     <row r="108">
       <c r="A108" s="13" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C108" s="70" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E108" s="17" t="s">
         <v>58</v>
@@ -22057,7 +22060,7 @@
       <c r="H108" s="13"/>
       <c r="I108" s="13"/>
       <c r="J108" s="13" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="K108" s="36">
         <v>45396.0</v>
@@ -22067,7 +22070,7 @@
         <v>20</v>
       </c>
       <c r="N108" s="109" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O108" s="13"/>
       <c r="P108" s="13"/>
@@ -22122,13 +22125,13 @@
     </row>
     <row r="111">
       <c r="A111" s="76" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B111" s="76" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C111" s="96" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D111" s="76"/>
       <c r="E111" s="17" t="s">
@@ -22142,7 +22145,7 @@
       <c r="K111" s="76"/>
       <c r="L111" s="76"/>
       <c r="M111" s="17" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N111" s="76"/>
       <c r="O111" s="76"/>
@@ -22164,11 +22167,11 @@
     </row>
     <row r="112">
       <c r="A112" s="80" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B112" s="86"/>
       <c r="C112" s="82" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D112" s="110" t="s">
         <v>51</v>
@@ -22186,7 +22189,7 @@
       </c>
       <c r="L112" s="87"/>
       <c r="M112" s="74" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N112" s="82" t="s">
         <v>211</v>
@@ -22216,13 +22219,13 @@
     </row>
     <row r="114">
       <c r="A114" s="17" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D114" s="19"/>
       <c r="E114" s="84" t="s">
@@ -22264,16 +22267,16 @@
     </row>
     <row r="115">
       <c r="A115" s="17" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E115" s="84" t="s">
         <v>58</v>
@@ -22314,16 +22317,16 @@
     </row>
     <row r="116">
       <c r="A116" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>708</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="D116" s="17" t="s">
         <v>706</v>
-      </c>
-      <c r="B116" s="17" t="s">
-        <v>707</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>708</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>705</v>
       </c>
       <c r="E116" s="84" t="s">
         <v>58</v>
@@ -22364,7 +22367,7 @@
     </row>
     <row r="119">
       <c r="A119" s="112" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B119" s="76"/>
       <c r="C119" s="76"/>
@@ -22398,13 +22401,13 @@
     </row>
     <row r="120">
       <c r="A120" s="76" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B120" s="76" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C120" s="76" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D120" s="76"/>
       <c r="E120" s="76"/>
@@ -22436,16 +22439,16 @@
     </row>
     <row r="121">
       <c r="A121" s="76" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B121" s="76" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C121" s="76" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D121" s="76" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E121" s="76"/>
       <c r="F121" s="76"/>
@@ -22476,13 +22479,13 @@
     </row>
     <row r="122">
       <c r="A122" s="76" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B122" s="76" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C122" s="76" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D122" s="76"/>
       <c r="E122" s="76"/>
@@ -22514,13 +22517,13 @@
     </row>
     <row r="123">
       <c r="A123" s="76" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B123" s="76" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C123" s="76" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D123" s="76"/>
       <c r="E123" s="76"/>
@@ -22552,10 +22555,10 @@
     </row>
     <row r="124">
       <c r="A124" s="76" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B124" s="76" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C124" s="76"/>
       <c r="D124" s="76"/>
@@ -22588,10 +22591,10 @@
     </row>
     <row r="125">
       <c r="A125" s="76" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B125" s="76" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C125" s="76"/>
       <c r="D125" s="76"/>
@@ -22624,10 +22627,10 @@
     </row>
     <row r="126">
       <c r="A126" s="76" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B126" s="76" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C126" s="76"/>
       <c r="D126" s="76"/>
@@ -22660,10 +22663,10 @@
     </row>
     <row r="127">
       <c r="A127" s="76" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B127" s="76" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C127" s="76"/>
       <c r="D127" s="76"/>
@@ -22696,10 +22699,10 @@
     </row>
     <row r="128">
       <c r="A128" s="76" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B128" s="76" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C128" s="76"/>
       <c r="D128" s="76"/>
@@ -22732,10 +22735,10 @@
     </row>
     <row r="129">
       <c r="A129" s="76" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B129" s="76" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C129" s="76"/>
       <c r="D129" s="76"/>
@@ -22768,10 +22771,10 @@
     </row>
     <row r="130">
       <c r="A130" s="76" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B130" s="76" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C130" s="76"/>
       <c r="D130" s="76"/>
@@ -22804,10 +22807,10 @@
     </row>
     <row r="131">
       <c r="A131" s="76" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B131" s="76" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C131" s="76"/>
       <c r="D131" s="76"/>
@@ -22840,10 +22843,10 @@
     </row>
     <row r="132">
       <c r="A132" s="76" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B132" s="76" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C132" s="76"/>
       <c r="D132" s="76"/>
@@ -22876,10 +22879,10 @@
     </row>
     <row r="133">
       <c r="A133" s="76" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B133" s="76" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C133" s="76"/>
       <c r="D133" s="76"/>
@@ -22912,10 +22915,10 @@
     </row>
     <row r="134">
       <c r="A134" s="76" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B134" s="76" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C134" s="76"/>
       <c r="D134" s="76"/>
@@ -22951,7 +22954,7 @@
         <v>36</v>
       </c>
       <c r="B135" s="76" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C135" s="76"/>
       <c r="D135" s="76"/>
@@ -22984,7 +22987,7 @@
     </row>
     <row r="136">
       <c r="A136" s="76" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B136" s="76"/>
       <c r="C136" s="76"/>
@@ -23018,7 +23021,7 @@
     </row>
     <row r="137">
       <c r="A137" s="76" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B137" s="76"/>
       <c r="C137" s="76"/>
@@ -23052,7 +23055,7 @@
     </row>
     <row r="138">
       <c r="A138" s="76" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B138" s="76"/>
       <c r="C138" s="76"/>
@@ -23086,7 +23089,7 @@
     </row>
     <row r="139">
       <c r="A139" s="76" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B139" s="76"/>
       <c r="C139" s="76"/>
@@ -23120,7 +23123,7 @@
     </row>
     <row r="140">
       <c r="A140" s="76" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B140" s="76"/>
       <c r="C140" s="76"/>
@@ -23186,11 +23189,11 @@
     </row>
     <row r="142">
       <c r="A142" s="76" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B142" s="76"/>
       <c r="C142" s="76" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D142" s="76"/>
       <c r="E142" s="76"/>
@@ -25884,13 +25887,13 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="17" t="s">
@@ -25933,16 +25936,16 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>81</v>
@@ -25996,16 +25999,16 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>747</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>745</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>746</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>747</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>744</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>81</v>
@@ -26014,7 +26017,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="17" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="20">
@@ -26025,7 +26028,7 @@
         <v>20</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="O5" s="68" t="s">
         <v>63</v>
@@ -26049,16 +26052,16 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>81</v>
@@ -26076,7 +26079,7 @@
         <v>20</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="O6" s="68" t="s">
         <v>63</v>
@@ -26100,16 +26103,16 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>756</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>757</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>754</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>755</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>756</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>753</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>81</v>
@@ -26127,7 +26130,7 @@
         <v>20</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="O7" s="68" t="s">
         <v>63</v>
@@ -26151,16 +26154,16 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>81</v>
@@ -26178,7 +26181,7 @@
         <v>20</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="O8" s="68" t="s">
         <v>63</v>
@@ -26202,16 +26205,16 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>81</v>
@@ -26286,16 +26289,16 @@
     </row>
     <row r="11">
       <c r="A11" s="113" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D11" s="83" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>81</v>
@@ -26305,7 +26308,7 @@
       <c r="H11" s="76"/>
       <c r="I11" s="76"/>
       <c r="J11" s="91" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="K11" s="20">
         <v>44601.0</v>
@@ -26335,16 +26338,16 @@
     </row>
     <row r="12">
       <c r="A12" s="114" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D12" s="83" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>81</v>
@@ -26382,16 +26385,16 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>81</v>
@@ -26436,30 +26439,30 @@
     </row>
     <row r="15">
       <c r="A15" s="113" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B15" s="83" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C15" s="75" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D15" s="91" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>81</v>
       </c>
       <c r="F15" s="76"/>
       <c r="G15" s="91" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H15" s="91" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="I15" s="76"/>
       <c r="J15" s="91" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="K15" s="20">
         <v>44601.0</v>
@@ -26469,7 +26472,7 @@
         <v>20</v>
       </c>
       <c r="N15" s="74" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O15" s="76"/>
       <c r="P15" s="76"/>
@@ -29197,13 +29200,13 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>104</v>
@@ -29216,7 +29219,7 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="17" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="K2" s="20">
         <v>44727.0</v>
@@ -29250,13 +29253,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="17" t="s">
@@ -29267,7 +29270,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="17" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="K3" s="67">
         <v>45396.0</v>
@@ -29299,13 +29302,13 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="17" t="s">
@@ -29316,7 +29319,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="90"/>
       <c r="J4" s="17" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="K4" s="67">
         <v>45396.0</v>
@@ -29348,13 +29351,13 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17" t="s">
@@ -29365,7 +29368,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="17" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="K5" s="67">
         <v>45396.0</v>
@@ -29397,13 +29400,13 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="17" t="s">
@@ -29414,7 +29417,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="17" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="K6" s="67">
         <v>45396.0</v>
@@ -29446,13 +29449,13 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="17" t="s">
@@ -29463,7 +29466,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="17" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="K7" s="67">
         <v>45396.0</v>
@@ -29495,13 +29498,13 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="17" t="s">
@@ -29512,7 +29515,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="17" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="K8" s="67">
         <v>45396.0</v>
@@ -29544,13 +29547,13 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="17" t="s">
@@ -29561,7 +29564,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="17" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="K9" s="67">
         <v>45396.0</v>
@@ -29593,13 +29596,13 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="17" t="s">
@@ -29610,7 +29613,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="17" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="K10" s="67">
         <v>45396.0</v>
@@ -29642,13 +29645,13 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="17" t="s">
@@ -29659,7 +29662,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="17" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="K11" s="67">
         <v>45396.0</v>
@@ -29691,13 +29694,13 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="17" t="s">
@@ -29708,7 +29711,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="17" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="K12" s="67">
         <v>45396.0</v>
@@ -33310,13 +33313,13 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="17" t="s">
@@ -33326,7 +33329,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="17" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="20">
@@ -33334,7 +33337,7 @@
       </c>
       <c r="L2" s="19"/>
       <c r="M2" s="17" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>53</v>
@@ -33356,13 +33359,13 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="17" t="s">
@@ -33378,7 +33381,7 @@
       </c>
       <c r="L3" s="19"/>
       <c r="M3" s="17" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N3" s="17" t="s">
         <v>53</v>
@@ -33400,13 +33403,13 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="17" t="s">
@@ -33416,7 +33419,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="17" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="J4" s="19"/>
       <c r="K4" s="20">
@@ -33424,7 +33427,7 @@
       </c>
       <c r="L4" s="19"/>
       <c r="M4" s="17" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N4" s="17" t="s">
         <v>53</v>
@@ -33435,13 +33438,13 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17" t="s">
@@ -33451,7 +33454,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="90" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="20">
@@ -33459,7 +33462,7 @@
       </c>
       <c r="L5" s="19"/>
       <c r="M5" s="17" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N5" s="17" t="s">
         <v>53</v>
@@ -33470,13 +33473,13 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="17" t="s">
@@ -33486,7 +33489,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="17" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="20">
@@ -33494,7 +33497,7 @@
       </c>
       <c r="L6" s="19"/>
       <c r="M6" s="17" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N6" s="17" t="s">
         <v>53</v>
@@ -33505,13 +33508,13 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="17" t="s">
@@ -33521,7 +33524,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="17" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="20">
@@ -33529,7 +33532,7 @@
       </c>
       <c r="L7" s="19"/>
       <c r="M7" s="17" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>53</v>
@@ -33540,13 +33543,13 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="17" t="s">
@@ -33556,7 +33559,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="17" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="20">
@@ -33564,7 +33567,7 @@
       </c>
       <c r="L8" s="19"/>
       <c r="M8" s="17" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N8" s="17" t="s">
         <v>53</v>
@@ -33575,13 +33578,13 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="17" t="s">
@@ -33597,7 +33600,7 @@
       </c>
       <c r="L9" s="19"/>
       <c r="M9" s="17" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N9" s="17" t="s">
         <v>53</v>
@@ -33608,13 +33611,13 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="17" t="s">
@@ -33630,7 +33633,7 @@
       </c>
       <c r="L10" s="19"/>
       <c r="M10" s="17" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N10" s="17" t="s">
         <v>53</v>
@@ -33641,13 +33644,13 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="17" t="s">
@@ -33663,7 +33666,7 @@
       </c>
       <c r="L11" s="19"/>
       <c r="M11" s="17" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N11" s="17" t="s">
         <v>53</v>
@@ -33674,13 +33677,13 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="17" t="s">
@@ -33696,7 +33699,7 @@
       </c>
       <c r="L12" s="19"/>
       <c r="M12" s="17" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N12" s="17" t="s">
         <v>53</v>
@@ -33707,13 +33710,13 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="17" t="s">
@@ -33729,7 +33732,7 @@
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="17" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N13" s="17" t="s">
         <v>53</v>
@@ -33740,13 +33743,13 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="17" t="s">
@@ -33762,7 +33765,7 @@
       </c>
       <c r="L14" s="19"/>
       <c r="M14" s="17" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N14" s="17" t="s">
         <v>53</v>
